--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1331.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1331.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.081145842924705</v>
+        <v>1.030943751335144</v>
       </c>
       <c r="B1">
-        <v>2.580072420775329</v>
+        <v>2.293096542358398</v>
       </c>
       <c r="C1">
-        <v>4.777575197439416</v>
+        <v>9.679383277893066</v>
       </c>
       <c r="D1">
-        <v>2.360421281710534</v>
+        <v>2.46974778175354</v>
       </c>
       <c r="E1">
-        <v>1.212575685093365</v>
+        <v>1.357510328292847</v>
       </c>
     </row>
   </sheetData>
